--- a/confusion matrix - temp.xlsx
+++ b/confusion matrix - temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skybe\Dropbox (Personal)\courses\MTech Knowledge engineering\KE 5107 - Data Mining Methodology &amp; Methods\workshops\Bayesian\NaiveBayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E55AD3-C260-49A5-BC7B-F8329F63DB5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2D118C-10A1-498B-8783-DBF5AB9B218C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{6A75B523-CFB1-4915-A7A6-396B1F886F56}"/>
   </bookViews>
@@ -122,21 +122,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,19 +452,18 @@
   <dimension ref="C6:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="C6:K14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
@@ -477,220 +474,220 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5" t="s">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
-        <v>2198</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1900</v>
-      </c>
-      <c r="G8" s="2">
-        <v>48</v>
-      </c>
-      <c r="H8" s="2">
-        <v>71</v>
-      </c>
-      <c r="I8" s="2">
-        <v>28</v>
-      </c>
-      <c r="J8" s="2">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="E8" s="3">
+        <v>2146</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1925</v>
+      </c>
+      <c r="G8" s="1">
+        <v>95</v>
+      </c>
+      <c r="H8" s="1">
+        <v>76</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C9" s="6"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
-        <v>1562</v>
-      </c>
-      <c r="F9" s="7">
-        <v>4124</v>
-      </c>
-      <c r="G9" s="2">
-        <v>118</v>
-      </c>
-      <c r="H9" s="2">
-        <v>216</v>
-      </c>
-      <c r="I9" s="2">
-        <v>102</v>
-      </c>
-      <c r="J9" s="2">
-        <v>58</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="E9" s="1">
+        <v>1565</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4126</v>
+      </c>
+      <c r="G9" s="1">
+        <v>264</v>
+      </c>
+      <c r="H9" s="1">
+        <v>176</v>
+      </c>
+      <c r="I9" s="1">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C10" s="5"/>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>170</v>
+      </c>
+      <c r="F10" s="1">
+        <v>644</v>
+      </c>
+      <c r="G10" s="3">
+        <v>155</v>
+      </c>
+      <c r="H10" s="1">
+        <v>84</v>
+      </c>
+      <c r="I10" s="1">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>147</v>
-      </c>
-      <c r="F10" s="2">
-        <v>667</v>
-      </c>
-      <c r="G10" s="7">
-        <v>48</v>
-      </c>
-      <c r="H10" s="2">
-        <v>130</v>
-      </c>
-      <c r="I10" s="2">
-        <v>45</v>
-      </c>
-      <c r="J10" s="2">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C11" s="5"/>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1">
+        <v>316</v>
+      </c>
+      <c r="G11" s="1">
+        <v>84</v>
+      </c>
+      <c r="H11" s="3">
+        <v>182</v>
+      </c>
+      <c r="I11" s="1">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C12" s="5"/>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1">
         <v>33</v>
       </c>
-      <c r="K10" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C11" s="6"/>
-      <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2">
-        <v>306</v>
-      </c>
-      <c r="G11" s="2">
-        <v>46</v>
-      </c>
-      <c r="H11" s="7">
-        <v>178</v>
-      </c>
-      <c r="I11" s="2">
-        <v>57</v>
-      </c>
-      <c r="J11" s="2">
-        <v>26</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="I12" s="3">
+        <v>64</v>
+      </c>
+      <c r="J12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C12" s="6"/>
-      <c r="D12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2">
-        <v>58</v>
-      </c>
-      <c r="G12" s="2">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C13" s="5"/>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+      <c r="J13" s="3">
         <v>51</v>
       </c>
-      <c r="I12" s="7">
-        <v>40</v>
-      </c>
-      <c r="J12" s="2">
-        <v>25</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="K13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C13" s="6"/>
-      <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2">
-        <v>31</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>30</v>
-      </c>
-      <c r="I13" s="2">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C14" s="5"/>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
         <v>29</v>
-      </c>
-      <c r="J13" s="7">
-        <v>25</v>
-      </c>
-      <c r="K13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C14" s="6"/>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2">
-        <v>7</v>
-      </c>
-      <c r="H14" s="2">
-        <v>11</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/confusion matrix - temp.xlsx
+++ b/confusion matrix - temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skybe\Dropbox (Personal)\courses\MTech Knowledge engineering\KE 5107 - Data Mining Methodology &amp; Methods\workshops\Bayesian\NaiveBayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2D118C-10A1-498B-8783-DBF5AB9B218C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60AFBCF-B824-4DC5-B8FE-E79D391742B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{6A75B523-CFB1-4915-A7A6-396B1F886F56}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="C6:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E8" sqref="C6:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -507,22 +507,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>2146</v>
+        <v>2252</v>
       </c>
       <c r="F8" s="1">
-        <v>1925</v>
+        <v>1864</v>
       </c>
       <c r="G8" s="1">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I8" s="1">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -534,22 +534,22 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1565</v>
+        <v>1581</v>
       </c>
       <c r="F9" s="3">
-        <v>4126</v>
+        <v>4142</v>
       </c>
       <c r="G9" s="1">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="H9" s="1">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="I9" s="1">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="J9" s="1">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
@@ -561,25 +561,25 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="F10" s="1">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="G10" s="3">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="I10" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.45">
@@ -588,25 +588,25 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G11" s="1">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H11" s="3">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I11" s="1">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.45">
@@ -615,22 +615,22 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I12" s="3">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -642,25 +642,25 @@
         <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1">
         <v>33</v>
       </c>
       <c r="G13" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I13" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="J13" s="3">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.45">
@@ -669,25 +669,25 @@
         <v>6</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K14" s="3">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/confusion matrix - temp.xlsx
+++ b/confusion matrix - temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skybe\Dropbox (Personal)\courses\MTech Knowledge engineering\KE 5107 - Data Mining Methodology &amp; Methods\workshops\Bayesian\NaiveBayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60AFBCF-B824-4DC5-B8FE-E79D391742B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30138EEF-6ED2-4E97-87D6-835C4A6A5D95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{6A75B523-CFB1-4915-A7A6-396B1F886F56}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="C6:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="C6:K14"/>
+      <selection activeCell="M20" sqref="M19:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -507,22 +507,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>2252</v>
+        <v>2181</v>
       </c>
       <c r="F8" s="1">
-        <v>1864</v>
+        <v>1896</v>
       </c>
       <c r="G8" s="1">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="H8" s="1">
         <v>69</v>
       </c>
       <c r="I8" s="1">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -534,22 +534,22 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="F9" s="3">
-        <v>4142</v>
+        <v>4110</v>
       </c>
       <c r="G9" s="1">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="H9" s="1">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="I9" s="1">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
@@ -561,25 +561,25 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="F10" s="1">
-        <v>688</v>
+        <v>652</v>
       </c>
       <c r="G10" s="3">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="H10" s="1">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I10" s="1">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.45">
@@ -588,25 +588,25 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="G11" s="1">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="H11" s="3">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I11" s="1">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K11" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.45">
@@ -615,25 +615,25 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1">
+        <v>57</v>
+      </c>
+      <c r="G12" s="1">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1">
+        <v>35</v>
+      </c>
+      <c r="I12" s="3">
         <v>65</v>
       </c>
-      <c r="G12" s="1">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1">
-        <v>46</v>
-      </c>
-      <c r="I12" s="3">
-        <v>41</v>
-      </c>
       <c r="J12" s="1">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.45">
@@ -648,19 +648,19 @@
         <v>33</v>
       </c>
       <c r="G13" s="1">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="H13" s="1">
-        <v>29</v>
-      </c>
-      <c r="I13" s="1">
-        <v>28</v>
-      </c>
       <c r="J13" s="3">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="K13" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.45">
@@ -669,25 +669,25 @@
         <v>6</v>
       </c>
       <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
         <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
       </c>
       <c r="G14" s="1">
         <v>5</v>
       </c>
       <c r="H14" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/confusion matrix - temp.xlsx
+++ b/confusion matrix - temp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skybe\Dropbox (Personal)\courses\MTech Knowledge engineering\KE 5107 - Data Mining Methodology &amp; Methods\workshops\Bayesian\NaiveBayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30138EEF-6ED2-4E97-87D6-835C4A6A5D95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F7608A-C467-4032-B8BB-A8E579553E6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{6A75B523-CFB1-4915-A7A6-396B1F886F56}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="C6:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M19:N20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -507,25 +507,25 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>2181</v>
+        <v>4327</v>
       </c>
       <c r="F8" s="1">
-        <v>1896</v>
+        <v>2871</v>
       </c>
       <c r="G8" s="1">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I8" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.45">
@@ -534,25 +534,25 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1582</v>
+        <v>2444</v>
       </c>
       <c r="F9" s="3">
-        <v>4110</v>
+        <v>6087</v>
       </c>
       <c r="G9" s="1">
-        <v>267</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="I9" s="1">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.45">
@@ -561,25 +561,25 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="F10" s="1">
-        <v>652</v>
+        <v>1016</v>
       </c>
       <c r="G10" s="3">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H10" s="1">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I10" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.45">
@@ -588,25 +588,25 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1">
-        <v>317</v>
+        <v>536</v>
       </c>
       <c r="G11" s="1">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="I11" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.45">
@@ -615,25 +615,25 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G12" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I12" s="3">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="J12" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.45">
@@ -642,25 +642,25 @@
         <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J13" s="3">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.45">
@@ -669,25 +669,25 @@
         <v>6</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>5</v>
-      </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K14" s="3">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/confusion matrix - temp.xlsx
+++ b/confusion matrix - temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skybe\Dropbox (Personal)\courses\MTech Knowledge engineering\KE 5107 - Data Mining Methodology &amp; Methods\workshops\Bayesian\NaiveBayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F7608A-C467-4032-B8BB-A8E579553E6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F042E7-16EE-4568-B2D3-9B4669792B93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{6A75B523-CFB1-4915-A7A6-396B1F886F56}"/>
   </bookViews>
@@ -25,33 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
-  <si>
-    <t>s1_below_0</t>
-  </si>
-  <si>
-    <t>s2_0_1</t>
-  </si>
-  <si>
-    <t>s3_1_2</t>
-  </si>
-  <si>
-    <t>s4_2_3</t>
-  </si>
-  <si>
-    <t>s5_3_4</t>
-  </si>
-  <si>
-    <t>s6_4_5</t>
-  </si>
-  <si>
-    <t>s7_5_up</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Predicted</t>
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>State0</t>
+  </si>
+  <si>
+    <t>State1</t>
+  </si>
+  <si>
+    <t>State2</t>
+  </si>
+  <si>
+    <t>State3</t>
+  </si>
+  <si>
+    <t>State4</t>
+  </si>
+  <si>
+    <t>State5</t>
+  </si>
+  <si>
+    <t>State6</t>
   </si>
 </sst>
 </file>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EEDD1A-B020-48B1-AD04-21FAE9C2C76E}">
-  <dimension ref="C6:K14"/>
+  <dimension ref="C5:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -461,11 +461,34 @@
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+    </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -477,217 +500,224 @@
     <row r="7" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
+      <c r="E7" s="2" t="str">
+        <f>"State"&amp;E5</f>
+        <v>State0</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" ref="F7:K7" si="0">"State"&amp;F5</f>
+        <v>State1</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>State2</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>State3</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>State4</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>State5</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>State6</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>134</v>
+      </c>
+      <c r="F8" s="1">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
         <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4327</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2871</v>
-      </c>
-      <c r="G8" s="1">
-        <v>33</v>
-      </c>
-      <c r="H8" s="1">
-        <v>52</v>
-      </c>
-      <c r="I8" s="1">
-        <v>23</v>
-      </c>
-      <c r="J8" s="1">
-        <v>12</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C9" s="5"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
         <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2444</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6087</v>
-      </c>
-      <c r="G9" s="1">
-        <v>60</v>
-      </c>
-      <c r="H9" s="1">
-        <v>127</v>
-      </c>
-      <c r="I9" s="1">
-        <v>49</v>
-      </c>
-      <c r="J9" s="1">
-        <v>42</v>
-      </c>
-      <c r="K9" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C10" s="5"/>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1">
-        <v>1016</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="H10" s="1">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I10" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K10" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C11" s="5"/>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
-        <v>536</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H11" s="3">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="I11" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C12" s="5"/>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E12" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1">
         <v>23</v>
       </c>
       <c r="I12" s="3">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="J12" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C13" s="5"/>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
       <c r="F13" s="1">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J13" s="3">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="K13" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C14" s="5"/>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
       <c r="F14" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K14" s="3">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
